--- a/data/etho_tp2.xlsx
+++ b/data/etho_tp2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellap\VirtualBox VMs\SciViews Box 2019\shared\projects\Ethologie-bourdons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E427A8-D694-4D8D-A0F1-3EB9D21CAE4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F219C013-FEC5-4881-919E-802F2C1CD137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46521C02-9B3C-412F-B494-5CC5A24EFC83}"/>
   </bookViews>
@@ -31,36 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="7">
   <si>
     <t>Individu</t>
-  </si>
-  <si>
-    <t>0 ,28</t>
-  </si>
-  <si>
-    <t>0 ,24</t>
-  </si>
-  <si>
-    <t>0 ,32</t>
-  </si>
-  <si>
-    <t>0,3à</t>
-  </si>
-  <si>
-    <t>0,2§</t>
-  </si>
-  <si>
-    <t>3 ,5</t>
-  </si>
-  <si>
-    <t>3 ,6</t>
-  </si>
-  <si>
-    <t>3 ,1</t>
-  </si>
-  <si>
-    <t>2 ,9</t>
   </si>
   <si>
     <t>sexe</t>
@@ -432,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E115C2CD-8B53-482C-B7D5-F04BA8322A05}">
   <dimension ref="A2:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,16 +420,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,7 +446,7 @@
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -507,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -524,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,7 +531,7 @@
         <v>3.1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -575,7 +548,7 @@
         <v>3.2</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -592,7 +565,7 @@
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +599,7 @@
         <v>3.2</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -660,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,7 +650,7 @@
         <v>3.8</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +701,7 @@
         <v>3.5</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -745,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,7 +735,7 @@
         <v>3.2</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -796,7 +769,7 @@
         <v>3.1</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -813,7 +786,7 @@
         <v>3.4</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -830,7 +803,7 @@
         <v>3.5</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -847,7 +820,7 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -864,7 +837,7 @@
         <v>3.7</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -881,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,7 +871,7 @@
         <v>3.1</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -915,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,7 +905,7 @@
         <v>3.6</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,7 +922,7 @@
         <v>3.4</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -966,7 +939,7 @@
         <v>3.5</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,7 +956,7 @@
         <v>3.2</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,7 +973,7 @@
         <v>3.6</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1017,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1034,7 +1007,7 @@
         <v>3.5</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1051,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1064,11 +1037,11 @@
       <c r="C38">
         <v>15</v>
       </c>
-      <c r="D38" t="s">
-        <v>6</v>
+      <c r="D38">
+        <v>3.5</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,7 +1058,7 @@
         <v>3.8</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1102,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1119,7 +1092,7 @@
         <v>3.1</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,7 +1109,7 @@
         <v>3.2</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1153,15 +1126,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>1</v>
+      <c r="B44">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C44">
         <v>14</v>
@@ -1170,7 +1143,7 @@
         <v>3.3</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,7 +1160,7 @@
         <v>3.5</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,7 +1194,7 @@
         <v>4.2</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1238,7 +1211,7 @@
         <v>3.5</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,7 +1245,7 @@
         <v>3.2</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1323,7 +1296,7 @@
         <v>3.3</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1340,7 +1313,7 @@
         <v>3.6</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,7 +1330,7 @@
         <v>3.5</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,7 +1347,7 @@
         <v>3.6</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,7 +1364,7 @@
         <v>3.5</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1408,7 +1381,7 @@
         <v>3.1</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1425,7 +1398,7 @@
         <v>3.7</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1442,7 +1415,7 @@
         <v>3.3</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1459,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,7 +1449,7 @@
         <v>3.5</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,7 +1483,7 @@
         <v>3.5</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,7 +1500,7 @@
         <v>3.1</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,7 +1517,7 @@
         <v>3.5</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1578,7 +1551,7 @@
         <v>3.5</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1595,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,7 +1585,7 @@
         <v>3.4</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1629,7 +1602,7 @@
         <v>3.4</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1646,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1663,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1680,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1697,7 +1670,7 @@
         <v>3.2</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1714,7 +1687,7 @@
         <v>3.8</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1731,7 +1704,7 @@
         <v>3.2</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1748,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1765,7 +1738,7 @@
         <v>3.1</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,15 +1772,15 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>2</v>
+      <c r="B82">
+        <v>0.24</v>
       </c>
       <c r="C82">
         <v>13</v>
@@ -1816,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1833,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1850,7 +1823,7 @@
         <v>3.5</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1867,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1884,7 +1857,7 @@
         <v>3.1</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1901,7 +1874,7 @@
         <v>3.3</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,7 +1891,7 @@
         <v>3.5</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -1935,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,7 +1925,7 @@
         <v>3.3</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -1969,7 +1942,7 @@
         <v>3.5</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -1986,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2020,7 +1993,7 @@
         <v>2.8</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2037,7 +2010,7 @@
         <v>3.6</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,7 +2027,7 @@
         <v>3.5</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2071,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2088,7 +2061,7 @@
         <v>3.7</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2105,7 +2078,7 @@
         <v>2.9</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2122,7 +2095,7 @@
         <v>3.8</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2139,15 +2112,15 @@
         <v>3.4</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>3</v>
+      <c r="B102">
+        <v>0.32</v>
       </c>
       <c r="C102">
         <v>16</v>
@@ -2156,7 +2129,7 @@
         <v>3.5</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2173,7 +2146,7 @@
         <v>2.9</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2186,11 +2159,11 @@
       <c r="C104">
         <v>15</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
+      <c r="D104">
+        <v>3.6</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2207,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2224,7 +2197,7 @@
         <v>3.3</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2241,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2258,7 +2231,7 @@
         <v>3.6</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,7 +2248,7 @@
         <v>3.1</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,7 +2265,7 @@
         <v>3.5</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2309,7 +2282,7 @@
         <v>3.3</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2326,7 +2299,7 @@
         <v>3.2</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2343,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2356,11 +2329,11 @@
       <c r="C114">
         <v>14</v>
       </c>
-      <c r="D114" t="s">
-        <v>8</v>
+      <c r="D114">
+        <v>3.1</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2377,7 +2350,7 @@
         <v>3.6</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2394,7 +2367,7 @@
         <v>3.2</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2411,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2428,7 +2401,7 @@
         <v>3.2</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2462,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,15 +2452,15 @@
         <v>3.1</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>4</v>
+      <c r="B122">
+        <v>0.3</v>
       </c>
       <c r="C122">
         <v>15</v>
@@ -2496,7 +2469,7 @@
         <v>3.2</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,7 +2486,7 @@
         <v>2.6</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,7 +2503,7 @@
         <v>3.1</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2547,7 +2520,7 @@
         <v>3.5</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -2564,7 +2537,7 @@
         <v>3.4</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -2581,15 +2554,15 @@
         <v>3.2</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>5</v>
+      <c r="B128">
+        <v>0.25</v>
       </c>
       <c r="C128">
         <v>15</v>
@@ -2598,7 +2571,7 @@
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2615,7 +2588,7 @@
         <v>3.5</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -2632,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -2649,7 +2622,7 @@
         <v>3.4</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,7 +2673,7 @@
         <v>3.7</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -2717,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -2734,7 +2707,7 @@
         <v>3.5</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -2751,7 +2724,7 @@
         <v>3.1</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -2768,7 +2741,7 @@
         <v>3.2</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -2785,7 +2758,7 @@
         <v>3.2</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -2802,7 +2775,7 @@
         <v>3.5</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -2819,7 +2792,7 @@
         <v>3.6</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -2836,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -2853,7 +2826,7 @@
         <v>2.9</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -2870,7 +2843,7 @@
         <v>3.2</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -2887,7 +2860,7 @@
         <v>3.1</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -2900,11 +2873,11 @@
       <c r="C146">
         <v>13</v>
       </c>
-      <c r="D146" t="s">
-        <v>9</v>
+      <c r="D146">
+        <v>2.9</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -2921,7 +2894,7 @@
         <v>3.1</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -2938,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -2955,7 +2928,7 @@
         <v>3.5</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -2972,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -2989,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,7 +2979,7 @@
         <v>3.5</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3023,7 +2996,7 @@
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3040,7 +3013,7 @@
         <v>3.5</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3057,7 +3030,7 @@
         <v>3.2</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3074,7 +3047,7 @@
         <v>3.5</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3091,7 +3064,7 @@
         <v>3.1</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3099,7 +3072,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.27850000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C158">
         <v>13</v>
@@ -3108,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3125,7 +3098,7 @@
         <v>3.3</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3142,7 +3115,7 @@
         <v>3.5</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3159,7 +3132,7 @@
         <v>3.2</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3176,7 +3149,7 @@
         <v>3.6</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3193,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3210,15 +3183,15 @@
         <v>3.7</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>4</v>
+      <c r="B165">
+        <v>0.3</v>
       </c>
       <c r="C165">
         <v>14</v>
@@ -3227,7 +3200,7 @@
         <v>3.5</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3244,7 +3217,7 @@
         <v>3.2</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3261,7 +3234,7 @@
         <v>3.4</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3278,7 +3251,7 @@
         <v>3.3</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3295,7 +3268,7 @@
         <v>2.8</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3312,7 +3285,7 @@
         <v>3.5</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3329,7 +3302,7 @@
         <v>3.5</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3346,7 +3319,7 @@
         <v>3.5</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3363,7 +3336,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3380,7 +3353,7 @@
         <v>3.3</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3397,7 +3370,7 @@
         <v>2.7</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3414,7 +3387,7 @@
         <v>4.5</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -3431,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/etho_tp2.xlsx
+++ b/data/etho_tp2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellap\VirtualBox VMs\SciViews Box 2019\shared\projects\Ethologie-bourdons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F219C013-FEC5-4881-919E-802F2C1CD137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3047E94-31FD-4053-B98E-16624070A85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46521C02-9B3C-412F-B494-5CC5A24EFC83}"/>
+    <workbookView xWindow="6864" yWindow="144" windowWidth="15180" windowHeight="11796" xr2:uid="{46521C02-9B3C-412F-B494-5CC5A24EFC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="7">
   <si>
     <t>Individu</t>
   </si>
@@ -45,13 +45,13 @@
     <t>M</t>
   </si>
   <si>
-    <t>weight</t>
+    <t>masse</t>
   </si>
   <si>
-    <t>size</t>
+    <t>taille</t>
   </si>
   <si>
-    <t>size_cr</t>
+    <t>taille_cr</t>
   </si>
 </sst>
 </file>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E115C2CD-8B53-482C-B7D5-F04BA8322A05}">
-  <dimension ref="A2:E177"/>
+  <dimension ref="A2:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -488,16 +488,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,16 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,13 +522,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -539,13 +539,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -556,13 +556,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="C10">
         <v>14</v>
       </c>
       <c r="D10">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -573,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C11">
         <v>14</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -590,13 +590,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -607,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -624,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -641,13 +641,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -658,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -675,13 +675,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -692,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -709,13 +709,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -726,13 +726,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -743,13 +743,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -760,13 +760,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -777,13 +777,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -794,10 +794,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>3.5</v>
@@ -811,13 +811,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C25">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -834,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="D26">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -845,13 +845,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.28000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -862,13 +862,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -879,13 +879,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -899,10 +899,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -913,13 +913,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -930,13 +930,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -947,13 +947,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="C33">
         <v>15</v>
       </c>
       <c r="D33">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -964,13 +964,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -981,13 +981,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -998,13 +998,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -1015,13 +1015,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.28999999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -1032,13 +1032,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -1049,13 +1049,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -1066,13 +1066,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="C40">
         <v>16</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
@@ -1083,13 +1083,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -1100,13 +1100,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -1117,13 +1117,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -1134,13 +1134,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -1151,13 +1151,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
@@ -1168,16 +1168,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1185,16 +1185,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1202,13 +1202,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
@@ -1219,13 +1219,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C49">
-        <v>0.12</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
@@ -1236,13 +1236,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
@@ -1256,10 +1256,10 @@
         <v>0.23</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
@@ -1270,13 +1270,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C52">
         <v>16</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
@@ -1287,13 +1287,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="C53">
         <v>16</v>
       </c>
       <c r="D53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
@@ -1304,13 +1304,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
@@ -1321,13 +1321,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.23</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
@@ -1338,13 +1338,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
@@ -1355,13 +1355,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
@@ -1372,13 +1372,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
@@ -1389,13 +1389,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -1406,13 +1406,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
@@ -1423,13 +1423,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -1446,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="D62">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
@@ -1457,13 +1457,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E63" t="s">
         <v>2</v>
@@ -1474,13 +1474,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
@@ -1491,13 +1491,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
@@ -1508,13 +1508,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C66">
         <v>13</v>
       </c>
       <c r="D66">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
@@ -1525,13 +1525,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="C67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
@@ -1542,13 +1542,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
@@ -1559,13 +1559,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E69" t="s">
         <v>2</v>
@@ -1576,10 +1576,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>3.4</v>
@@ -1593,13 +1593,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="C72">
         <v>14</v>
@@ -1627,10 +1627,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -1644,13 +1644,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
@@ -1661,16 +1661,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="E75" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1678,16 +1678,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="C76">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D76">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="E76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,13 +1695,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="C77">
         <v>13</v>
       </c>
       <c r="D77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
         <v>2</v>
@@ -1712,13 +1712,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="C78">
         <v>13</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E78" t="s">
         <v>2</v>
@@ -1732,10 +1732,10 @@
         <v>0.27</v>
       </c>
       <c r="C79">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -1746,10 +1746,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1763,10 +1763,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -1780,10 +1780,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="C82">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1797,13 +1797,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="C83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
@@ -1814,13 +1814,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
         <v>2</v>
@@ -1831,13 +1831,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="C85">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="E85" t="s">
         <v>2</v>
@@ -1848,13 +1848,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="E86" t="s">
         <v>2</v>
@@ -1865,13 +1865,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D87">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
@@ -1882,13 +1882,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D88">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E88" t="s">
         <v>2</v>
@@ -1899,13 +1899,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E89" t="s">
         <v>2</v>
@@ -1916,13 +1916,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
@@ -1933,16 +1933,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -1950,16 +1950,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -1967,13 +1967,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.3</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
@@ -1984,13 +1984,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.14000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
@@ -2001,13 +2001,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="C95">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
@@ -2018,13 +2018,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
@@ -2035,13 +2035,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E97" t="s">
         <v>2</v>
@@ -2052,13 +2052,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D98">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
@@ -2069,13 +2069,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
@@ -2086,13 +2086,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="C100">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
@@ -2103,13 +2103,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
@@ -2120,13 +2120,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="C102">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
@@ -2137,13 +2137,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="C103">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
@@ -2154,13 +2154,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="C104">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
@@ -2171,13 +2171,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
@@ -2188,13 +2188,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="C106">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
@@ -2205,13 +2205,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
@@ -2222,13 +2222,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="C108">
         <v>15</v>
       </c>
       <c r="D108">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
@@ -2239,13 +2239,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="C109">
         <v>15</v>
       </c>
       <c r="D109">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -2256,13 +2256,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -2273,13 +2273,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C111">
         <v>14</v>
       </c>
       <c r="D111">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -2290,13 +2290,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="C112">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
@@ -2307,13 +2307,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
@@ -2324,13 +2324,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="C114">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
@@ -2341,13 +2341,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="C115">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D115">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -2358,13 +2358,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C116">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
@@ -2375,13 +2375,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="C117">
         <v>14</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
@@ -2392,13 +2392,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="C118">
         <v>14</v>
       </c>
       <c r="D118">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -2409,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="C119">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -2426,13 +2426,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
@@ -2443,13 +2443,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C121">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D121">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
@@ -2460,13 +2460,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="C122">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
@@ -2477,13 +2477,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="C123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
@@ -2494,13 +2494,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
@@ -2517,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="D125">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
@@ -2528,13 +2528,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="C126">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D126">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
@@ -2545,13 +2545,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D127">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
@@ -2562,13 +2562,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C128">
         <v>15</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -2579,13 +2579,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="C129">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -2596,13 +2596,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C130">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -2613,13 +2613,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="C131">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D131">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -2630,10 +2630,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="C132">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -2647,13 +2647,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -2664,13 +2664,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -2681,13 +2681,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -2698,13 +2698,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="C136">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D136">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -2715,13 +2715,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="C137">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -2732,7 +2732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C138">
         <v>15</v>
@@ -2752,10 +2752,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -2766,13 +2766,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="C140">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -2783,13 +2783,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="C141">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D141">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -2800,13 +2800,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -2817,13 +2817,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C143">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -2834,13 +2834,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="C144">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -2851,13 +2851,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="C145">
         <v>13</v>
       </c>
       <c r="D145">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -2868,13 +2868,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C146">
         <v>13</v>
       </c>
       <c r="D146">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -2885,13 +2885,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="C147">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -2902,13 +2902,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C148">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -2919,13 +2919,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="C149">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D149">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -2936,10 +2936,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -2953,13 +2953,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="C151">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -2970,13 +2970,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="C152">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D152">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -2987,13 +2987,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C153">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3004,13 +3004,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C154">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D154">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -3021,13 +3021,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D155">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -3038,13 +3038,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D156">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -3055,13 +3055,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C157">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D157">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -3072,13 +3072,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="C158">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -3089,13 +3089,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="C159">
         <v>16</v>
       </c>
       <c r="D159">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -3106,13 +3106,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="C160">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -3123,13 +3123,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="C161">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D161">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E161" t="s">
         <v>2</v>
@@ -3140,13 +3140,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="C162">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D162">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E162" t="s">
         <v>2</v>
@@ -3157,13 +3157,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="C163">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
@@ -3174,13 +3174,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="C164">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D164">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="E164" t="s">
         <v>2</v>
@@ -3194,10 +3194,10 @@
         <v>0.3</v>
       </c>
       <c r="C165">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D165">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E165" t="s">
         <v>2</v>
@@ -3214,7 +3214,7 @@
         <v>16</v>
       </c>
       <c r="D166">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E166" t="s">
         <v>2</v>
@@ -3225,13 +3225,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C167">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E167" t="s">
         <v>2</v>
@@ -3242,13 +3242,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="C168">
         <v>14</v>
       </c>
       <c r="D168">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E168" t="s">
         <v>2</v>
@@ -3259,13 +3259,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="C169">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D169">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="E169" t="s">
         <v>2</v>
@@ -3276,10 +3276,10 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="C170">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D170">
         <v>3.5</v>
@@ -3293,10 +3293,10 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="C171">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D171">
         <v>3.5</v>
@@ -3310,13 +3310,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="C172">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D172">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
@@ -3327,13 +3327,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="C173">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D173">
-        <v>0.28000000000000003</v>
+        <v>3.3</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
@@ -3344,13 +3344,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="C174">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D174">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
@@ -3361,13 +3361,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D175">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="E175" t="s">
         <v>2</v>
@@ -3378,32 +3378,15 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>32</v>
+        <v>0.19</v>
       </c>
       <c r="C176">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D176">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>0.19</v>
-      </c>
-      <c r="C177">
-        <v>12</v>
-      </c>
-      <c r="D177">
-        <v>3</v>
-      </c>
-      <c r="E177" t="s">
         <v>2</v>
       </c>
     </row>
